--- a/ESPN sports website/IPL/Mumbai Indians/Dewald Brevis.xlsx
+++ b/ESPN sports website/IPL/Mumbai Indians/Dewald Brevis.xlsx
@@ -480,31 +480,31 @@
         <v>Dewald Brevis</v>
       </c>
       <c r="C3" t="str">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D3" t="str">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>152.63</v>
+        <v>57.14</v>
       </c>
       <c r="H3" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>April 06, 2022</v>
+        <v>April 21, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
+        <v>Super Kings won by 3 wickets</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Dewald Brevis</v>
       </c>
       <c r="C4" t="str">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D4" t="str">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E4" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="str">
-        <v>238.46</v>
+        <v>112.12</v>
       </c>
       <c r="H4" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J4" t="str">
-        <v>April 16, 2022</v>
+        <v>May 21, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Super Giants won by 18 runs</v>
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Dewald Brevis</v>
       </c>
       <c r="C5" t="str">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D5" t="str">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>60.00</v>
+        <v>238.46</v>
       </c>
       <c r="H5" t="str">
         <v>Lucknow Super Giants</v>
       </c>
       <c r="I5" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J5" t="str">
-        <v>April 24, 2022</v>
+        <v>April 16, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Super Giants won by 36 runs</v>
+        <v>Super Giants won by 18 runs</v>
       </c>
     </row>
     <row r="6">
@@ -585,10 +585,10 @@
         <v>Dewald Brevis</v>
       </c>
       <c r="C6" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="str">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" t="str">
         <v>0</v>
@@ -597,19 +597,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>57.14</v>
+        <v>60.00</v>
       </c>
       <c r="H6" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I6" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J6" t="str">
-        <v>April 21, 2022</v>
+        <v>April 24, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Super Kings won by 3 wickets</v>
+        <v>Super Giants won by 36 runs</v>
       </c>
     </row>
     <row r="7">
@@ -620,31 +620,31 @@
         <v>Dewald Brevis</v>
       </c>
       <c r="C7" t="str">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D7" t="str">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E7" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" t="str">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7" t="str">
-        <v>196.00</v>
+        <v>152.63</v>
       </c>
       <c r="H7" t="str">
-        <v>Punjab Kings</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I7" t="str">
         <v>Pune</v>
       </c>
       <c r="J7" t="str">
-        <v>April 13, 2022</v>
+        <v>April 06, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Punjab Kings won by 12 runs</v>
+        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
       </c>
     </row>
     <row r="8">
@@ -655,31 +655,31 @@
         <v>Dewald Brevis</v>
       </c>
       <c r="C8" t="str">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D8" t="str">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E8" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" t="str">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8" t="str">
-        <v>112.12</v>
+        <v>196.00</v>
       </c>
       <c r="H8" t="str">
-        <v>Delhi Capitals</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I8" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J8" t="str">
-        <v>May 21, 2022</v>
+        <v>April 13, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+        <v>Punjab Kings won by 12 runs</v>
       </c>
     </row>
   </sheetData>
